--- a/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>82.66</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.46</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006195</t>
+          <t>005108</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国金量化多因子股票</t>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>163809</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>中银蓝筹精选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -660,15 +720,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.80</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.92</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.80</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>6.92</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005108</t>
+          <t>006274</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+          <t>圆信永丰医药健康混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.86</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -744,15 +834,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>84.08</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.07</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>163809</t>
+          <t>006195</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银蓝筹精选灵活配置混合</t>
+          <t>国金量化多因子股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>79.27</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2077</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>122.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.45</v>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.33</v>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1566,493 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>501201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1503</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1951,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,17 +1963,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1982,14 +2003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.39</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1419</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1998,14 +2041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19</v>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2014,14 +2079,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.45</v>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2030,14 +2117,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.33</v>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2046,13 +2155,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2388,7 +2389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,17 +2400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2419,14 +2440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>154.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9306</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.26</v>
       </c>
     </row>
     <row r="3">
@@ -2435,14 +2478,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.39</v>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>111.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3833</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2451,14 +2516,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.19</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2467,14 +2554,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.45</v>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0382</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2483,14 +2592,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.33</v>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -2499,13 +2630,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.39</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>9.84</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>3.26</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>4.39</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -600,6 +617,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0894</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7693</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +1488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1547,7 +1924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2097,7 +2474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2305,7 +2682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2589,7 +2966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2911,7 +3288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300841-康华生物.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>8.83</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>9.84</v>
+        <v>8.83</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>3.26</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>4.39</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>0.19</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,166 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +832,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>118.19</t>
+          <t>116.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>93.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.0894</t>
+          <t>3.9188</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +870,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>75.87</t>
+          <t>76.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.7328</t>
+          <t>2.9394</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +898,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>003567</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>华夏行业景气混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.46</t>
+          <t>109.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>93.65</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7693</t>
+          <t>2.3016</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +936,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001551</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>天弘中证医药100指数型发起式 C</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>34.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.24</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1364</t>
+          <t>1.0179</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +974,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001550</t>
+          <t>001551</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证医药100指数型发起式 A</t>
+          <t>天弘中证医药100指数C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>95.24</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0844</t>
+          <t>0.1660</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1012,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>210011</t>
+          <t>001550</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金鹰灵活配置混合C</t>
+          <t>天弘中证医药100指数A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0100</t>
+          <t>0.1133</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1050,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>210010</t>
+          <t>320020</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金鹰灵活配置混合A</t>
+          <t>诺安策略精选股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>24.78</t>
+          <t>80.51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0490</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -949,26 +1098,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>56.56</t>
+          <t>67.57</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0013</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -977,6 +1126,366 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0894</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7693</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1488,7 +1997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1924,7 +2433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2474,7 +2983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2682,7 +3191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2966,7 +3475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3286,136 +3795,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000061</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏盛世混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3466</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003567</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏行业景气混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>82.66</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0401</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>